--- a/script/summary/summary_hanin.xlsx
+++ b/script/summary/summary_hanin.xlsx
@@ -76,604 +76,604 @@
     <t>hanin</t>
   </si>
   <si>
-    <t>2023-05-25 13:14:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:16:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:18:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:19:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:21:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:22:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:24:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:25:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:27:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:28:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:30:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:32:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:33:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:35:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:36:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:38:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:39:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:41:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:42:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:44:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:46:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:47:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:49:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:50:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:52:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:53:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:55:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:56:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 13:58:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:00:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:01:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:03:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:04:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:06:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:07:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:09:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:10:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:12:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:14:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:15:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:17:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:18:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:20:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:21:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:23:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:24:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:26:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:28:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:29:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:31:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:32:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:34:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:35:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:37:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:38:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:40:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:42:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:44:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:45:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:47:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:47:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:49:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:51:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:52:37 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:54:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:56:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:58:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 14:59:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:01:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:03:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:05:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:07:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:08:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:10:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:12:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:14:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:15:37 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:17:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:18:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:20:19 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:21:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:23:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:25:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:26:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:28:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:29:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:31:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:32:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:34:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:35:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:37:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:39:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:40:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:42:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:43:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:45:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:46:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:48:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:50:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-25 15:51:39 WIB</t>
-  </si>
-  <si>
-    <t>1684995295</t>
-  </si>
-  <si>
-    <t>1684995389</t>
-  </si>
-  <si>
-    <t>1684995483</t>
-  </si>
-  <si>
-    <t>1684995576</t>
-  </si>
-  <si>
-    <t>1684995670</t>
-  </si>
-  <si>
-    <t>1684995763</t>
-  </si>
-  <si>
-    <t>1684995856</t>
-  </si>
-  <si>
-    <t>1684995950</t>
-  </si>
-  <si>
-    <t>1684996043</t>
-  </si>
-  <si>
-    <t>1684996136</t>
-  </si>
-  <si>
-    <t>1684996229</t>
-  </si>
-  <si>
-    <t>1684996322</t>
-  </si>
-  <si>
-    <t>1684996416</t>
-  </si>
-  <si>
-    <t>1684996509</t>
-  </si>
-  <si>
-    <t>1684996602</t>
-  </si>
-  <si>
-    <t>1684996695</t>
-  </si>
-  <si>
-    <t>1684996788</t>
-  </si>
-  <si>
-    <t>1684996881</t>
-  </si>
-  <si>
-    <t>1684996974</t>
-  </si>
-  <si>
-    <t>1684997068</t>
-  </si>
-  <si>
-    <t>1684997161</t>
-  </si>
-  <si>
-    <t>1684997256</t>
-  </si>
-  <si>
-    <t>1684997350</t>
-  </si>
-  <si>
-    <t>1684997443</t>
-  </si>
-  <si>
-    <t>1684997536</t>
-  </si>
-  <si>
-    <t>1684997629</t>
-  </si>
-  <si>
-    <t>1684997723</t>
-  </si>
-  <si>
-    <t>1684997816</t>
-  </si>
-  <si>
-    <t>1684997909</t>
-  </si>
-  <si>
-    <t>1684998002</t>
-  </si>
-  <si>
-    <t>1684998096</t>
-  </si>
-  <si>
-    <t>1684998189</t>
-  </si>
-  <si>
-    <t>1684998282</t>
-  </si>
-  <si>
-    <t>1684998375</t>
-  </si>
-  <si>
-    <t>1684998468</t>
-  </si>
-  <si>
-    <t>1684998561</t>
-  </si>
-  <si>
-    <t>1684998654</t>
-  </si>
-  <si>
-    <t>1684998747</t>
-  </si>
-  <si>
-    <t>1684998841</t>
-  </si>
-  <si>
-    <t>1684998935</t>
-  </si>
-  <si>
-    <t>1684999028</t>
-  </si>
-  <si>
-    <t>1684999122</t>
-  </si>
-  <si>
-    <t>1684999215</t>
-  </si>
-  <si>
-    <t>1684999308</t>
-  </si>
-  <si>
-    <t>1684999401</t>
-  </si>
-  <si>
-    <t>1684999495</t>
-  </si>
-  <si>
-    <t>1684999588</t>
-  </si>
-  <si>
-    <t>1684999681</t>
-  </si>
-  <si>
-    <t>1684999776</t>
-  </si>
-  <si>
-    <t>1684999869</t>
-  </si>
-  <si>
-    <t>1684999963</t>
-  </si>
-  <si>
-    <t>1685000057</t>
-  </si>
-  <si>
-    <t>1685000151</t>
-  </si>
-  <si>
-    <t>1685000245</t>
-  </si>
-  <si>
-    <t>1685000339</t>
-  </si>
-  <si>
-    <t>1685000433</t>
-  </si>
-  <si>
-    <t>1685000559</t>
-  </si>
-  <si>
-    <t>1685000653</t>
-  </si>
-  <si>
-    <t>1685000747</t>
-  </si>
-  <si>
-    <t>1685000840</t>
-  </si>
-  <si>
-    <t>1685000875</t>
-  </si>
-  <si>
-    <t>1685000969</t>
-  </si>
-  <si>
-    <t>1685001063</t>
-  </si>
-  <si>
-    <t>1685001157</t>
-  </si>
-  <si>
-    <t>1685001283</t>
-  </si>
-  <si>
-    <t>1685001377</t>
-  </si>
-  <si>
-    <t>1685001502</t>
-  </si>
-  <si>
-    <t>1685001596</t>
-  </si>
-  <si>
-    <t>1685001690</t>
-  </si>
-  <si>
-    <t>1685001784</t>
-  </si>
-  <si>
-    <t>1685001910</t>
-  </si>
-  <si>
-    <t>1685002035</t>
-  </si>
-  <si>
-    <t>1685002129</t>
-  </si>
-  <si>
-    <t>1685002223</t>
-  </si>
-  <si>
-    <t>1685002349</t>
-  </si>
-  <si>
-    <t>1685002443</t>
-  </si>
-  <si>
-    <t>1685002537</t>
-  </si>
-  <si>
-    <t>1685002631</t>
-  </si>
-  <si>
-    <t>1685002725</t>
-  </si>
-  <si>
-    <t>1685002819</t>
-  </si>
-  <si>
-    <t>1685002913</t>
-  </si>
-  <si>
-    <t>1685003007</t>
-  </si>
-  <si>
-    <t>1685003101</t>
-  </si>
-  <si>
-    <t>1685003195</t>
-  </si>
-  <si>
-    <t>1685003289</t>
-  </si>
-  <si>
-    <t>1685003383</t>
-  </si>
-  <si>
-    <t>1685003477</t>
-  </si>
-  <si>
-    <t>1685003571</t>
-  </si>
-  <si>
-    <t>1685003665</t>
-  </si>
-  <si>
-    <t>1685003759</t>
-  </si>
-  <si>
-    <t>1685003853</t>
-  </si>
-  <si>
-    <t>1685003947</t>
-  </si>
-  <si>
-    <t>1685004041</t>
-  </si>
-  <si>
-    <t>1685004135</t>
-  </si>
-  <si>
-    <t>1685004229</t>
-  </si>
-  <si>
-    <t>1685004323</t>
-  </si>
-  <si>
-    <t>1685004417</t>
-  </si>
-  <si>
-    <t>1685004511</t>
-  </si>
-  <si>
-    <t>1685004605</t>
-  </si>
-  <si>
-    <t>1685004699</t>
+    <t>2023-06-29 01:13:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:14:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:16:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:18:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:19:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:21:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:22:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:24:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:25:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:27:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:28:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:30:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:32:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:33:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:35:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:36:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:38:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:39:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:41:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:42:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:44:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:46:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:47:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:49:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:50:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:52:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:53:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:55:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:56:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 01:58:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:00:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:01:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:03:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:04:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:06:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:07:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:09:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:10:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:12:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:14:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:15:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:17:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:18:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:20:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:21:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:23:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:24:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:26:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:27:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:29:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:31:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:32:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:34:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:35:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:37:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:38:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:40:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:42:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:43:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:45:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:46:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:48:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:50:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:51:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:53:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:55:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:57:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 02:58:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:00:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:01:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:03:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:05:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:07:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:08:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:10:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:12:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:13:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:15:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:17:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:18:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:20:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:21:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:23:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:24:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:26:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:28:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:29:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:31:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:32:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:34:17 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:35:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:37:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:38:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:40:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:42:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:43:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:45:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:46:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:48:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 03:49:57 WIB</t>
+  </si>
+  <si>
+    <t>1687976003</t>
+  </si>
+  <si>
+    <t>1687976096</t>
+  </si>
+  <si>
+    <t>1687976189</t>
+  </si>
+  <si>
+    <t>1687976282</t>
+  </si>
+  <si>
+    <t>1687976376</t>
+  </si>
+  <si>
+    <t>1687976469</t>
+  </si>
+  <si>
+    <t>1687976562</t>
+  </si>
+  <si>
+    <t>1687976656</t>
+  </si>
+  <si>
+    <t>1687976749</t>
+  </si>
+  <si>
+    <t>1687976843</t>
+  </si>
+  <si>
+    <t>1687976936</t>
+  </si>
+  <si>
+    <t>1687977029</t>
+  </si>
+  <si>
+    <t>1687977122</t>
+  </si>
+  <si>
+    <t>1687977216</t>
+  </si>
+  <si>
+    <t>1687977309</t>
+  </si>
+  <si>
+    <t>1687977402</t>
+  </si>
+  <si>
+    <t>1687977495</t>
+  </si>
+  <si>
+    <t>1687977589</t>
+  </si>
+  <si>
+    <t>1687977682</t>
+  </si>
+  <si>
+    <t>1687977775</t>
+  </si>
+  <si>
+    <t>1687977868</t>
+  </si>
+  <si>
+    <t>1687977961</t>
+  </si>
+  <si>
+    <t>1687978055</t>
+  </si>
+  <si>
+    <t>1687978148</t>
+  </si>
+  <si>
+    <t>1687978242</t>
+  </si>
+  <si>
+    <t>1687978336</t>
+  </si>
+  <si>
+    <t>1687978429</t>
+  </si>
+  <si>
+    <t>1687978522</t>
+  </si>
+  <si>
+    <t>1687978615</t>
+  </si>
+  <si>
+    <t>1687978708</t>
+  </si>
+  <si>
+    <t>1687978801</t>
+  </si>
+  <si>
+    <t>1687978895</t>
+  </si>
+  <si>
+    <t>1687978988</t>
+  </si>
+  <si>
+    <t>1687979081</t>
+  </si>
+  <si>
+    <t>1687979174</t>
+  </si>
+  <si>
+    <t>1687979267</t>
+  </si>
+  <si>
+    <t>1687979360</t>
+  </si>
+  <si>
+    <t>1687979453</t>
+  </si>
+  <si>
+    <t>1687979547</t>
+  </si>
+  <si>
+    <t>1687979641</t>
+  </si>
+  <si>
+    <t>1687979735</t>
+  </si>
+  <si>
+    <t>1687979828</t>
+  </si>
+  <si>
+    <t>1687979921</t>
+  </si>
+  <si>
+    <t>1687980014</t>
+  </si>
+  <si>
+    <t>1687980107</t>
+  </si>
+  <si>
+    <t>1687980200</t>
+  </si>
+  <si>
+    <t>1687980293</t>
+  </si>
+  <si>
+    <t>1687980386</t>
+  </si>
+  <si>
+    <t>1687980479</t>
+  </si>
+  <si>
+    <t>1687980572</t>
+  </si>
+  <si>
+    <t>1687980665</t>
+  </si>
+  <si>
+    <t>1687980759</t>
+  </si>
+  <si>
+    <t>1687980853</t>
+  </si>
+  <si>
+    <t>1687980947</t>
+  </si>
+  <si>
+    <t>1687981041</t>
+  </si>
+  <si>
+    <t>1687981135</t>
+  </si>
+  <si>
+    <t>1687981229</t>
+  </si>
+  <si>
+    <t>1687981323</t>
+  </si>
+  <si>
+    <t>1687981417</t>
+  </si>
+  <si>
+    <t>1687981511</t>
+  </si>
+  <si>
+    <t>1687981605</t>
+  </si>
+  <si>
+    <t>1687981731</t>
+  </si>
+  <si>
+    <t>1687981825</t>
+  </si>
+  <si>
+    <t>1687981919</t>
+  </si>
+  <si>
+    <t>1687982013</t>
+  </si>
+  <si>
+    <t>1687982107</t>
+  </si>
+  <si>
+    <t>1687982232</t>
+  </si>
+  <si>
+    <t>1687982326</t>
+  </si>
+  <si>
+    <t>1687982420</t>
+  </si>
+  <si>
+    <t>1687982514</t>
+  </si>
+  <si>
+    <t>1687982639</t>
+  </si>
+  <si>
+    <t>1687982733</t>
+  </si>
+  <si>
+    <t>1687982827</t>
+  </si>
+  <si>
+    <t>1687982921</t>
+  </si>
+  <si>
+    <t>1687983015</t>
+  </si>
+  <si>
+    <t>1687983141</t>
+  </si>
+  <si>
+    <t>1687983235</t>
+  </si>
+  <si>
+    <t>1687983329</t>
+  </si>
+  <si>
+    <t>1687983423</t>
+  </si>
+  <si>
+    <t>1687983517</t>
+  </si>
+  <si>
+    <t>1687983611</t>
+  </si>
+  <si>
+    <t>1687983705</t>
+  </si>
+  <si>
+    <t>1687983799</t>
+  </si>
+  <si>
+    <t>1687983893</t>
+  </si>
+  <si>
+    <t>1687983987</t>
+  </si>
+  <si>
+    <t>1687984081</t>
+  </si>
+  <si>
+    <t>1687984175</t>
+  </si>
+  <si>
+    <t>1687984269</t>
+  </si>
+  <si>
+    <t>1687984363</t>
+  </si>
+  <si>
+    <t>1687984457</t>
+  </si>
+  <si>
+    <t>1687984551</t>
+  </si>
+  <si>
+    <t>1687984645</t>
+  </si>
+  <si>
+    <t>1687984739</t>
+  </si>
+  <si>
+    <t>1687984833</t>
+  </si>
+  <si>
+    <t>1687984927</t>
+  </si>
+  <si>
+    <t>1687985021</t>
+  </si>
+  <si>
+    <t>1687985115</t>
+  </si>
+  <si>
+    <t>1687985209</t>
+  </si>
+  <si>
+    <t>1687985303</t>
+  </si>
+  <si>
+    <t>1687985397</t>
   </si>
   <si>
     <t>GET /node</t>
@@ -1160,40 +1160,40 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="I2">
-        <v>99.27</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>59.76</v>
+        <v>59.63</v>
       </c>
       <c r="K2">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="L2">
-        <v>17.92</v>
+        <v>16.7</v>
       </c>
       <c r="M2">
-        <v>9.140000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="N2">
         <v>0.01</v>
       </c>
       <c r="O2">
-        <v>163.73</v>
+        <v>166.37</v>
       </c>
       <c r="P2">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="S2">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1222,37 +1222,37 @@
         <v>566</v>
       </c>
       <c r="I3">
-        <v>99.12</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>59.82</v>
+        <v>59.19</v>
       </c>
       <c r="K3">
         <v>0.64</v>
       </c>
       <c r="L3">
-        <v>17.22</v>
+        <v>17.41</v>
       </c>
       <c r="M3">
-        <v>9.460000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="N3">
         <v>0.01</v>
       </c>
       <c r="O3">
-        <v>162.97</v>
+        <v>166.52</v>
       </c>
       <c r="P3">
         <v>566</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>21.55</v>
+        <v>23.18</v>
       </c>
       <c r="S3">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1278,40 +1278,40 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="I4">
-        <v>99.27</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>59.92</v>
+        <v>59.14</v>
       </c>
       <c r="K4">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="L4">
-        <v>17.79</v>
+        <v>16.42</v>
       </c>
       <c r="M4">
-        <v>9.06</v>
+        <v>10.21</v>
       </c>
       <c r="N4">
         <v>0.01</v>
       </c>
       <c r="O4">
-        <v>161.2</v>
+        <v>167.7</v>
       </c>
       <c r="P4">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>21.95</v>
+        <v>20.51</v>
       </c>
       <c r="S4">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1337,40 +1337,40 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>525</v>
+        <v>638</v>
       </c>
       <c r="I5">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>59.07</v>
+        <v>59.31</v>
       </c>
       <c r="K5">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="L5">
-        <v>18.14</v>
+        <v>15.72</v>
       </c>
       <c r="M5">
-        <v>8.890000000000001</v>
+        <v>10.76</v>
       </c>
       <c r="N5">
         <v>0.01</v>
       </c>
       <c r="O5">
-        <v>161.2</v>
+        <v>169.14</v>
       </c>
       <c r="P5">
-        <v>525</v>
+        <v>638</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>23.16</v>
+        <v>19.56</v>
       </c>
       <c r="S5">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1396,40 +1396,40 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="I6">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>59.89</v>
+        <v>59.83</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L6">
-        <v>18.2</v>
+        <v>17.43</v>
       </c>
       <c r="M6">
-        <v>8.83</v>
+        <v>9.58</v>
       </c>
       <c r="N6">
         <v>0.01</v>
       </c>
       <c r="O6">
-        <v>160.78</v>
+        <v>166.9</v>
       </c>
       <c r="P6">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>23.18</v>
+        <v>24.25</v>
       </c>
       <c r="S6">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1455,40 +1455,40 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="I7">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>59.19</v>
+        <v>59.26</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="L7">
-        <v>27.14</v>
+        <v>25.54</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>10.14</v>
       </c>
       <c r="N7">
         <v>0.01</v>
       </c>
       <c r="O7">
-        <v>244.37</v>
+        <v>258.99</v>
       </c>
       <c r="P7">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>45.15</v>
+        <v>40.24</v>
       </c>
       <c r="S7">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1514,40 +1514,40 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="I8">
-        <v>99.05</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>59.17</v>
+        <v>59.13</v>
       </c>
       <c r="K8">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="L8">
-        <v>27.27</v>
+        <v>26.34</v>
       </c>
       <c r="M8">
-        <v>8.77</v>
+        <v>10.25</v>
       </c>
       <c r="N8">
         <v>0.01</v>
       </c>
       <c r="O8">
-        <v>239.2</v>
+        <v>270</v>
       </c>
       <c r="P8">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>45.47</v>
+        <v>39.53</v>
       </c>
       <c r="S8">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1573,40 +1573,40 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="I9">
-        <v>99.27</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>59.86</v>
+        <v>59.85</v>
       </c>
       <c r="K9">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="L9">
-        <v>27.93</v>
+        <v>25.46</v>
       </c>
       <c r="M9">
-        <v>9.09</v>
+        <v>9.92</v>
       </c>
       <c r="N9">
         <v>0.01</v>
       </c>
       <c r="O9">
-        <v>253.82</v>
+        <v>252.73</v>
       </c>
       <c r="P9">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>43.84</v>
+        <v>41.66</v>
       </c>
       <c r="S9">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1632,40 +1632,40 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="I10">
-        <v>99.12</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>59.13</v>
+        <v>59.1</v>
       </c>
       <c r="K10">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="L10">
-        <v>26.6</v>
+        <v>26.81</v>
       </c>
       <c r="M10">
-        <v>9.56</v>
+        <v>10.07</v>
       </c>
       <c r="N10">
         <v>0.01</v>
       </c>
       <c r="O10">
-        <v>254.18</v>
+        <v>269.94</v>
       </c>
       <c r="P10">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41.57</v>
+        <v>40.6</v>
       </c>
       <c r="S10">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1691,40 +1691,40 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>570</v>
+        <v>626</v>
       </c>
       <c r="I11">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>59.18</v>
+        <v>59.94</v>
       </c>
       <c r="K11">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="L11">
-        <v>27.38</v>
+        <v>26.19</v>
       </c>
       <c r="M11">
-        <v>9.630000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="N11">
         <v>0.01</v>
       </c>
       <c r="O11">
-        <v>263.69</v>
+        <v>273.47</v>
       </c>
       <c r="P11">
-        <v>570</v>
+        <v>626</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>41.74</v>
+        <v>38.85</v>
       </c>
       <c r="S11">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1750,40 +1750,40 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="I12">
-        <v>99.16</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>59.07</v>
+        <v>59.3</v>
       </c>
       <c r="K12">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="L12">
-        <v>29.52</v>
+        <v>29.6</v>
       </c>
       <c r="M12">
-        <v>9.99</v>
+        <v>10.74</v>
       </c>
       <c r="N12">
         <v>0.01</v>
       </c>
       <c r="O12">
-        <v>294.85</v>
+        <v>317.95</v>
       </c>
       <c r="P12">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>58.76</v>
+        <v>55.88</v>
       </c>
       <c r="S12">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1809,40 +1809,40 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I13">
-        <v>99.19</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>59.17</v>
+        <v>59.16</v>
       </c>
       <c r="K13">
         <v>0.55</v>
       </c>
       <c r="L13">
-        <v>33.88</v>
+        <v>36.01</v>
       </c>
       <c r="M13">
-        <v>8.25</v>
+        <v>8.27</v>
       </c>
       <c r="N13">
         <v>0.01</v>
       </c>
       <c r="O13">
-        <v>279.45</v>
+        <v>297.64</v>
       </c>
       <c r="P13">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>58.68</v>
+        <v>59.06</v>
       </c>
       <c r="S13">
-        <v>9.19</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1868,40 +1868,40 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>471</v>
+        <v>622</v>
       </c>
       <c r="I14">
-        <v>99.16</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>59.7</v>
+        <v>59.12</v>
       </c>
       <c r="K14">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>35.73</v>
+        <v>29.62</v>
       </c>
       <c r="M14">
-        <v>7.89</v>
+        <v>10.52</v>
       </c>
       <c r="N14">
         <v>0.01</v>
       </c>
       <c r="O14">
-        <v>281.86</v>
+        <v>311.65</v>
       </c>
       <c r="P14">
-        <v>471</v>
+        <v>622</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>59.47</v>
+        <v>56.78</v>
       </c>
       <c r="S14">
-        <v>11.68</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1927,40 +1927,40 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="I15">
-        <v>99.16</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>59.18</v>
+        <v>59.95</v>
       </c>
       <c r="K15">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="L15">
-        <v>34.08</v>
+        <v>33.27</v>
       </c>
       <c r="M15">
-        <v>8.029999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="N15">
         <v>0.01</v>
       </c>
       <c r="O15">
-        <v>273.57</v>
+        <v>320.81</v>
       </c>
       <c r="P15">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>59.01</v>
+        <v>59.89</v>
       </c>
       <c r="S15">
-        <v>8.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1986,40 +1986,40 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="I16">
-        <v>99.14</v>
+        <v>100</v>
       </c>
       <c r="J16">
-        <v>59.18</v>
+        <v>59.26</v>
       </c>
       <c r="K16">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="L16">
-        <v>34.63</v>
+        <v>34.52</v>
       </c>
       <c r="M16">
-        <v>7.77</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N16">
         <v>0.01</v>
       </c>
       <c r="O16">
-        <v>269.18</v>
+        <v>283.09</v>
       </c>
       <c r="P16">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>58.84</v>
+        <v>59.1</v>
       </c>
       <c r="S16">
-        <v>10.33</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2045,37 +2045,37 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="I17">
-        <v>99.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>59.14</v>
+        <v>59.12</v>
       </c>
       <c r="K17">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="L17">
-        <v>31.75</v>
+        <v>35.47</v>
       </c>
       <c r="M17">
-        <v>8.199999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="N17">
         <v>0.01</v>
       </c>
       <c r="O17">
-        <v>260.4</v>
+        <v>301.78</v>
       </c>
       <c r="P17">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>58.92</v>
+        <v>59.03</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2104,37 +2104,37 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="I18">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="J18">
-        <v>59.07</v>
+        <v>59.17</v>
       </c>
       <c r="K18">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="L18">
-        <v>45.04</v>
+        <v>43.01</v>
       </c>
       <c r="M18">
-        <v>4.27</v>
+        <v>5.37</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O18">
-        <v>192.15</v>
+        <v>231.17</v>
       </c>
       <c r="P18">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>58.67</v>
+        <v>59.1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2163,37 +2163,37 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="I19">
-        <v>99.06999999999999</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <v>59.11</v>
+        <v>59.93</v>
       </c>
       <c r="K19">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>42.21</v>
+        <v>43.11</v>
       </c>
       <c r="M19">
-        <v>5.38</v>
+        <v>5.87</v>
       </c>
       <c r="N19">
         <v>0.01</v>
       </c>
       <c r="O19">
-        <v>227.1</v>
+        <v>253.21</v>
       </c>
       <c r="P19">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>58.91</v>
+        <v>59.78</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2222,37 +2222,37 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I20">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>59.12</v>
+        <v>59.13</v>
       </c>
       <c r="K20">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="L20">
-        <v>42.14</v>
+        <v>42.49</v>
       </c>
       <c r="M20">
-        <v>5.36</v>
+        <v>5.56</v>
       </c>
       <c r="N20">
         <v>0.01</v>
       </c>
       <c r="O20">
-        <v>225.96</v>
+        <v>236.43</v>
       </c>
       <c r="P20">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>58.9</v>
+        <v>59.04</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2281,40 +2281,40 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="I21">
-        <v>99.27</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>59.89</v>
+        <v>59.21</v>
       </c>
       <c r="K21">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="L21">
-        <v>44.72</v>
+        <v>42.96</v>
       </c>
       <c r="M21">
-        <v>4.56</v>
+        <v>5.98</v>
       </c>
       <c r="N21">
         <v>0.01</v>
       </c>
       <c r="O21">
-        <v>203.86</v>
+        <v>256.85</v>
       </c>
       <c r="P21">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>59.77</v>
+        <v>59.13</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2340,40 +2340,40 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="I22">
-        <v>99.12</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>59.98</v>
+        <v>59.27</v>
       </c>
       <c r="K22">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="L22">
-        <v>47.09</v>
+        <v>41.6</v>
       </c>
       <c r="M22">
-        <v>3.77</v>
+        <v>5.77</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O22">
-        <v>177.44</v>
+        <v>240.04</v>
       </c>
       <c r="P22">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>59.68</v>
+        <v>59.14</v>
       </c>
       <c r="S22">
-        <v>34.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2399,37 +2399,37 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>59.77</v>
+        <v>59.17</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>53.74</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>108.99</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>59.08</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2458,37 +2458,37 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24">
-        <v>59.66</v>
+        <v>59.76</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>100.4</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>59.67</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2517,37 +2517,37 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>59.15</v>
+        <v>59.18</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>116.91</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>59.01</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2576,37 +2576,37 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>59.18</v>
+        <v>59.81</v>
       </c>
       <c r="K26">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>56.35</v>
       </c>
       <c r="M26">
-        <v>0.59</v>
+        <v>1.42</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>33.71</v>
+        <v>80.09</v>
       </c>
       <c r="P26">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>59</v>
+        <v>59.76</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2635,40 +2635,40 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.98</v>
+        <v>59.89</v>
       </c>
       <c r="K27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L27">
-        <v>55.08</v>
+        <v>50.95</v>
       </c>
       <c r="M27">
-        <v>1.18</v>
+        <v>2.22</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>65.2</v>
+        <v>113.14</v>
       </c>
       <c r="P27">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>59.84</v>
+        <v>59.8</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>41.92</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2694,40 +2694,40 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="I28">
-        <v>99.05</v>
+        <v>100</v>
       </c>
       <c r="J28">
-        <v>59.32</v>
+        <v>59.2</v>
       </c>
       <c r="K28">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="L28">
-        <v>21.58</v>
+        <v>20.09</v>
       </c>
       <c r="M28">
-        <v>7.06</v>
+        <v>7.85</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>152.42</v>
+        <v>157.8</v>
       </c>
       <c r="P28">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>28.57</v>
+        <v>26.16</v>
       </c>
       <c r="S28">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2753,40 +2753,40 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="I29">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J29">
-        <v>59.3</v>
+        <v>59.28</v>
       </c>
       <c r="K29">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L29">
-        <v>21.94</v>
+        <v>19.69</v>
       </c>
       <c r="M29">
-        <v>6.81</v>
+        <v>7.96</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>149.5</v>
+        <v>156.77</v>
       </c>
       <c r="P29">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>29.58</v>
+        <v>26.07</v>
       </c>
       <c r="S29">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2812,40 +2812,40 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="I30">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J30">
-        <v>59.28</v>
+        <v>59.38</v>
       </c>
       <c r="K30">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="L30">
-        <v>21.82</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>6.83</v>
+        <v>7.88</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>149.09</v>
+        <v>157.64</v>
       </c>
       <c r="P30">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>30.1</v>
+        <v>25.76</v>
       </c>
       <c r="S30">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2871,40 +2871,40 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="I31">
-        <v>98.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>59.21</v>
+        <v>59.28</v>
       </c>
       <c r="K31">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L31">
-        <v>22.33</v>
+        <v>19.67</v>
       </c>
       <c r="M31">
-        <v>6.64</v>
+        <v>8.06</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O31">
-        <v>148.18</v>
+        <v>158.57</v>
       </c>
       <c r="P31">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>30.1</v>
+        <v>25.17</v>
       </c>
       <c r="S31">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2930,40 +2930,40 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I32">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>59.88</v>
+        <v>59.4</v>
       </c>
       <c r="K32">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L32">
-        <v>30.46</v>
+        <v>31.53</v>
       </c>
       <c r="M32">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>202.46</v>
+        <v>207.54</v>
       </c>
       <c r="P32">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>59.48</v>
+        <v>59.21</v>
       </c>
       <c r="S32">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2989,40 +2989,40 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="I33">
-        <v>99.03</v>
+        <v>100</v>
       </c>
       <c r="J33">
-        <v>59.2</v>
+        <v>59.75</v>
       </c>
       <c r="K33">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="L33">
-        <v>29.05</v>
+        <v>30.51</v>
       </c>
       <c r="M33">
-        <v>6.91</v>
+        <v>7.45</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>200.73</v>
+        <v>227.25</v>
       </c>
       <c r="P33">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>57.22</v>
+        <v>54.09</v>
       </c>
       <c r="S33">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3048,40 +3048,40 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="I34">
-        <v>98.97</v>
+        <v>100</v>
       </c>
       <c r="J34">
-        <v>59.07</v>
+        <v>59.28</v>
       </c>
       <c r="K34">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="L34">
-        <v>28.76</v>
+        <v>28.83</v>
       </c>
       <c r="M34">
-        <v>6.5</v>
+        <v>7.42</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>186.96</v>
+        <v>214</v>
       </c>
       <c r="P34">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>58.74</v>
+        <v>53.82</v>
       </c>
       <c r="S34">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3107,40 +3107,40 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="I35">
-        <v>99.03</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>59.14</v>
+        <v>59.2</v>
       </c>
       <c r="K35">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="L35">
-        <v>29.64</v>
+        <v>29.84</v>
       </c>
       <c r="M35">
-        <v>6.88</v>
+        <v>7.33</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>204</v>
+        <v>218.79</v>
       </c>
       <c r="P35">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>57.52</v>
+        <v>54.96</v>
       </c>
       <c r="S35">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3166,40 +3166,40 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="I36">
-        <v>99.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="J36">
-        <v>59.08</v>
+        <v>59.16</v>
       </c>
       <c r="K36">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="L36">
-        <v>29.72</v>
+        <v>28.56</v>
       </c>
       <c r="M36">
-        <v>6.97</v>
+        <v>7.88</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>207.23</v>
+        <v>224.96</v>
       </c>
       <c r="P36">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>56.6</v>
+        <v>50.79</v>
       </c>
       <c r="S36">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3225,40 +3225,40 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="I37">
-        <v>99.05</v>
+        <v>100</v>
       </c>
       <c r="J37">
-        <v>59.18</v>
+        <v>59.23</v>
       </c>
       <c r="K37">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L37">
-        <v>29.76</v>
+        <v>30.05</v>
       </c>
       <c r="M37">
-        <v>7.01</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O37">
-        <v>208.71</v>
+        <v>240.47</v>
       </c>
       <c r="P37">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>59.03</v>
+        <v>59.17</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3284,37 +3284,37 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I38">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J38">
-        <v>59.25</v>
+        <v>59.29</v>
       </c>
       <c r="K38">
         <v>0.16</v>
       </c>
       <c r="L38">
-        <v>40.41</v>
+        <v>39.72</v>
       </c>
       <c r="M38">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>176.66</v>
+        <v>171.5</v>
       </c>
       <c r="P38">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>59.15</v>
+        <v>59.25</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3343,37 +3343,37 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="I39">
-        <v>99.13</v>
+        <v>100</v>
       </c>
       <c r="J39">
-        <v>59.05</v>
+        <v>60.01</v>
       </c>
       <c r="K39">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="L39">
-        <v>42.46</v>
+        <v>38.84</v>
       </c>
       <c r="M39">
-        <v>3.88</v>
+        <v>5.55</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>164.65</v>
+        <v>215.51</v>
       </c>
       <c r="P39">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>59.02</v>
+        <v>59.86</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3402,40 +3402,40 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="I40">
-        <v>99.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="J40">
-        <v>59.96</v>
+        <v>59.1</v>
       </c>
       <c r="K40">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L40">
-        <v>44.27</v>
+        <v>42.33</v>
       </c>
       <c r="M40">
-        <v>3.89</v>
+        <v>4.4</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>172.02</v>
+        <v>186.23</v>
       </c>
       <c r="P40">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>59.76</v>
+        <v>58.94</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3461,40 +3461,40 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>243</v>
+        <v>446</v>
       </c>
       <c r="I41">
-        <v>99.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J41">
-        <v>59.56</v>
+        <v>59.94</v>
       </c>
       <c r="K41">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="L41">
-        <v>42.31</v>
+        <v>32.13</v>
       </c>
       <c r="M41">
-        <v>4.08</v>
+        <v>7.44</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>172.61</v>
+        <v>239.06</v>
       </c>
       <c r="P41">
-        <v>243</v>
+        <v>446</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>59.24</v>
+        <v>59.88</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3520,37 +3520,37 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="I42">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="J42">
-        <v>59.24</v>
+        <v>59.35</v>
       </c>
       <c r="K42">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="L42">
-        <v>41.54</v>
+        <v>46.8</v>
       </c>
       <c r="M42">
-        <v>4.17</v>
+        <v>3.22</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>173.18</v>
+        <v>150.61</v>
       </c>
       <c r="P42">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>59.13</v>
+        <v>59.27</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3579,37 +3579,37 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>59.89</v>
+        <v>59.23</v>
       </c>
       <c r="K43">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L43">
-        <v>54.72</v>
+        <v>53.7</v>
       </c>
       <c r="M43">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>62.12</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="P43">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>59.7</v>
+        <v>59.06</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3638,40 +3638,40 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I44">
-        <v>96.55</v>
+        <v>100</v>
       </c>
       <c r="J44">
-        <v>59.14</v>
+        <v>59.2</v>
       </c>
       <c r="K44">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="L44">
-        <v>57.2</v>
+        <v>52.75</v>
       </c>
       <c r="M44">
-        <v>0.47</v>
+        <v>1.74</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>27.08</v>
+        <v>91.77</v>
       </c>
       <c r="P44">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>58.99</v>
+        <v>59.13</v>
       </c>
       <c r="S44">
-        <v>55.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3697,37 +3697,37 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>59.15</v>
+        <v>59.28</v>
       </c>
       <c r="K45">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L45">
-        <v>56.68</v>
+        <v>56.63</v>
       </c>
       <c r="M45">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>31.62</v>
+        <v>40.12</v>
       </c>
       <c r="P45">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>58.98</v>
+        <v>59.17</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3756,37 +3756,37 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>60.02</v>
+        <v>59.3</v>
       </c>
       <c r="K46">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L46">
-        <v>56.44</v>
+        <v>53.28</v>
       </c>
       <c r="M46">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>46.07</v>
+        <v>83.56</v>
       </c>
       <c r="P46">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>59.82</v>
+        <v>59.23</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3815,37 +3815,37 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="I47">
         <v>100</v>
       </c>
       <c r="J47">
-        <v>59.22</v>
+        <v>59.19</v>
       </c>
       <c r="K47">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L47">
-        <v>54.67</v>
+        <v>52.66</v>
       </c>
       <c r="M47">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>57.24</v>
+        <v>94.31</v>
       </c>
       <c r="P47">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>59.04</v>
+        <v>59.1</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>59.13</v>
+        <v>59.34</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>60</v>
+        <v>59.21</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>59.89</v>
+        <v>59.09</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>59.92</v>
+        <v>59.17</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4169,10 +4169,10 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J53">
         <v>59.66</v>
@@ -4181,28 +4181,28 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>49.41</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>139.96</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>59.61</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4228,40 +4228,40 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="I54">
-        <v>99.05</v>
+        <v>100</v>
       </c>
       <c r="J54">
-        <v>59.79</v>
+        <v>59.84</v>
       </c>
       <c r="K54">
         <v>0.01</v>
       </c>
       <c r="L54">
-        <v>21.49</v>
+        <v>19.8</v>
       </c>
       <c r="M54">
-        <v>6.99</v>
+        <v>7.52</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>150.24</v>
+        <v>148.86</v>
       </c>
       <c r="P54">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>28.52</v>
+        <v>28.7</v>
       </c>
       <c r="S54">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4287,40 +4287,40 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="I55">
-        <v>99.03</v>
+        <v>100</v>
       </c>
       <c r="J55">
-        <v>59.78</v>
+        <v>59.62</v>
       </c>
       <c r="K55">
         <v>0.01</v>
       </c>
       <c r="L55">
-        <v>21.82</v>
+        <v>20.35</v>
       </c>
       <c r="M55">
-        <v>6.86</v>
+        <v>7.7</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>149.64</v>
+        <v>156.64</v>
       </c>
       <c r="P55">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="Q55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>29.93</v>
+        <v>26.8</v>
       </c>
       <c r="S55">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4346,40 +4346,40 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="I56">
-        <v>99.22</v>
+        <v>100</v>
       </c>
       <c r="J56">
-        <v>59.64</v>
+        <v>59.61</v>
       </c>
       <c r="K56">
         <v>0.01</v>
       </c>
       <c r="L56">
-        <v>22.91</v>
+        <v>19.88</v>
       </c>
       <c r="M56">
-        <v>6.42</v>
+        <v>7.78</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>147.14</v>
+        <v>154.77</v>
       </c>
       <c r="P56">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>31.31</v>
+        <v>26.98</v>
       </c>
       <c r="S56">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4405,40 +4405,40 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="I57">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J57">
-        <v>59.58</v>
+        <v>59.37</v>
       </c>
       <c r="K57">
         <v>0.01</v>
       </c>
       <c r="L57">
-        <v>30.21</v>
+        <v>29.93</v>
       </c>
       <c r="M57">
-        <v>6.65</v>
+        <v>7.83</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>200.79</v>
+        <v>234.41</v>
       </c>
       <c r="P57">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>59.2</v>
+        <v>51.36</v>
       </c>
       <c r="S57">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4464,40 +4464,40 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="I58">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J58">
-        <v>59.78</v>
+        <v>59.89</v>
       </c>
       <c r="K58">
         <v>0.01</v>
       </c>
       <c r="L58">
-        <v>29.83</v>
+        <v>29.21</v>
       </c>
       <c r="M58">
-        <v>6.61</v>
+        <v>7.83</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>197.09</v>
+        <v>228.78</v>
       </c>
       <c r="P58">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>59.41</v>
+        <v>51.12</v>
       </c>
       <c r="S58">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4523,40 +4523,40 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="I59">
-        <v>99.02</v>
+        <v>100</v>
       </c>
       <c r="J59">
-        <v>59.76</v>
+        <v>59.51</v>
       </c>
       <c r="K59">
         <v>0.01</v>
       </c>
       <c r="L59">
-        <v>30.03</v>
+        <v>29.64</v>
       </c>
       <c r="M59">
-        <v>6.74</v>
+        <v>7.8</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>202.52</v>
+        <v>231.07</v>
       </c>
       <c r="P59">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="Q59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>58.58</v>
+        <v>51.26</v>
       </c>
       <c r="S59">
-        <v>1.15</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4582,40 +4582,40 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="I60">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J60">
-        <v>59.76</v>
+        <v>59.68</v>
       </c>
       <c r="K60">
         <v>0.01</v>
       </c>
       <c r="L60">
-        <v>30.92</v>
+        <v>28.96</v>
       </c>
       <c r="M60">
-        <v>6.78</v>
+        <v>7.89</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>209.52</v>
+        <v>228.56</v>
       </c>
       <c r="P60">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>58.58</v>
+        <v>50.91</v>
       </c>
       <c r="S60">
-        <v>1.48</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4641,40 +4641,40 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61">
-        <v>1.57</v>
+        <v>59.8</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>28.97</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>7.64</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>221.37</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="Q61">
-        <v>1423</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>52.12</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4700,40 +4700,40 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="I62">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="J62">
-        <v>59.19</v>
+        <v>59.75</v>
       </c>
       <c r="K62">
         <v>0.01</v>
       </c>
       <c r="L62">
-        <v>29.62</v>
+        <v>29.93</v>
       </c>
       <c r="M62">
-        <v>7.21</v>
+        <v>7.72</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>213.66</v>
+        <v>230.94</v>
       </c>
       <c r="P62">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>58.75</v>
+        <v>59.6</v>
       </c>
       <c r="S62">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4759,40 +4759,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="I63">
-        <v>99.14</v>
+        <v>100</v>
       </c>
       <c r="J63">
-        <v>59.52</v>
+        <v>59.86</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L63">
-        <v>41.35</v>
+        <v>38.22</v>
       </c>
       <c r="M63">
-        <v>3.88</v>
+        <v>5.76</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>160.47</v>
+        <v>220.29</v>
       </c>
       <c r="P63">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>59.32</v>
+        <v>59.76</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4818,40 +4818,40 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I64">
-        <v>99.08</v>
+        <v>100</v>
       </c>
       <c r="J64">
-        <v>59.52</v>
+        <v>59.79</v>
       </c>
       <c r="K64">
         <v>0.01</v>
       </c>
       <c r="L64">
-        <v>36.42</v>
+        <v>37.73</v>
       </c>
       <c r="M64">
-        <v>5.41</v>
+        <v>5.62</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>197.03</v>
+        <v>212</v>
       </c>
       <c r="P64">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>59.32</v>
+        <v>59.7</v>
       </c>
       <c r="S64">
-        <v>13.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4877,40 +4877,40 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="I65">
-        <v>99.31999999999999</v>
+        <v>100</v>
       </c>
       <c r="J65">
-        <v>59.48</v>
+        <v>59.93</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L65">
-        <v>37.26</v>
+        <v>38.84</v>
       </c>
       <c r="M65">
-        <v>4.93</v>
+        <v>5.64</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>183.54</v>
+        <v>219.07</v>
       </c>
       <c r="P65">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>59.26</v>
+        <v>59.79</v>
       </c>
       <c r="S65">
-        <v>15.53</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4936,40 +4936,40 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="I66">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="J66">
-        <v>59.55</v>
+        <v>59.76</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L66">
-        <v>39.13</v>
+        <v>39.58</v>
       </c>
       <c r="M66">
-        <v>4.79</v>
+        <v>5.19</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>187.29</v>
+        <v>205.33</v>
       </c>
       <c r="P66">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>59.39</v>
+        <v>59.6</v>
       </c>
       <c r="S66">
-        <v>18.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4995,37 +4995,37 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="I67">
-        <v>99.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="J67">
-        <v>59.8</v>
+        <v>59.27</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>43.57</v>
+        <v>39.31</v>
       </c>
       <c r="M67">
-        <v>3.9</v>
+        <v>5.13</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>169.77</v>
+        <v>201.6</v>
       </c>
       <c r="P67">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>59.69</v>
+        <v>59.2</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5054,37 +5054,37 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>59.15</v>
+        <v>59.22</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>55.92</v>
+        <v>52.91</v>
       </c>
       <c r="M68">
-        <v>0.74</v>
+        <v>1.54</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>41.59</v>
+        <v>81.3</v>
       </c>
       <c r="P68">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>58.99</v>
+        <v>59.06</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5113,37 +5113,37 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>59.65</v>
+        <v>59.97</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>58.72</v>
+        <v>51.62</v>
       </c>
       <c r="M69">
-        <v>0.2</v>
+        <v>2.27</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>11.81</v>
+        <v>117.06</v>
       </c>
       <c r="P69">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>59.54</v>
+        <v>59.89</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -5172,37 +5172,37 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>59.33</v>
+        <v>59.57</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>55.03</v>
+        <v>53.83</v>
       </c>
       <c r="M70">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>55.65</v>
+        <v>76.81</v>
       </c>
       <c r="P70">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>59.24</v>
+        <v>59.42</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5231,37 +5231,37 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>59.58</v>
+        <v>59.32</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>53.39</v>
+        <v>51.91</v>
       </c>
       <c r="M71">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>67.20999999999999</v>
+        <v>99.77</v>
       </c>
       <c r="P71">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>59.44</v>
+        <v>59.16</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5290,37 +5290,37 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>98.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>59.57</v>
+        <v>59.68</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>53.98</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>67.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>59.42</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>59.43</v>
+        <v>59.75</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>59.38</v>
+        <v>59.41</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>59.69</v>
+        <v>59.53</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>59.85</v>
+        <v>59.42</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>59.36</v>
+        <v>59.73</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5644,40 +5644,40 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J78">
-        <v>59.44</v>
+        <v>59.74</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>38.63</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>167.48</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>54.02</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5703,40 +5703,40 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="I79">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="J79">
-        <v>59.57</v>
+        <v>59.85</v>
       </c>
       <c r="K79">
         <v>0.01</v>
       </c>
       <c r="L79">
-        <v>19.08</v>
+        <v>17.33</v>
       </c>
       <c r="M79">
-        <v>8.380000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>159.84</v>
+        <v>166.51</v>
       </c>
       <c r="P79">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="Q79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>24.23</v>
+        <v>22.1</v>
       </c>
       <c r="S79">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5762,40 +5762,40 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="I80">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="J80">
-        <v>59.57</v>
+        <v>59.35</v>
       </c>
       <c r="K80">
         <v>0.01</v>
       </c>
       <c r="L80">
-        <v>18.95</v>
+        <v>16.37</v>
       </c>
       <c r="M80">
-        <v>8.48</v>
+        <v>10.11</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>160.62</v>
+        <v>165.47</v>
       </c>
       <c r="P80">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="Q80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>23.93</v>
+        <v>20.02</v>
       </c>
       <c r="S80">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5821,40 +5821,40 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="I81">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="J81">
-        <v>59.21</v>
+        <v>59.57</v>
       </c>
       <c r="K81">
         <v>0.01</v>
       </c>
       <c r="L81">
-        <v>18.79</v>
+        <v>16.65</v>
       </c>
       <c r="M81">
-        <v>8.529999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>160.27</v>
+        <v>167.43</v>
       </c>
       <c r="P81">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>23.66</v>
+        <v>20.79</v>
       </c>
       <c r="S81">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5880,40 +5880,40 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="I82">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="J82">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="K82">
         <v>0.01</v>
       </c>
       <c r="L82">
-        <v>28.22</v>
+        <v>26.17</v>
       </c>
       <c r="M82">
-        <v>8.859999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>250.06</v>
+        <v>265.68</v>
       </c>
       <c r="P82">
-        <v>529</v>
+        <v>607</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>45.69</v>
+        <v>39.73</v>
       </c>
       <c r="S82">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5939,40 +5939,40 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="I83">
-        <v>99.03</v>
+        <v>100</v>
       </c>
       <c r="J83">
-        <v>59.66</v>
+        <v>59.76</v>
       </c>
       <c r="K83">
         <v>0.01</v>
       </c>
       <c r="L83">
-        <v>28.31</v>
+        <v>27.04</v>
       </c>
       <c r="M83">
-        <v>8.6</v>
+        <v>9.82</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>243.45</v>
+        <v>265.65</v>
       </c>
       <c r="P83">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="Q83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>46.27</v>
+        <v>41.6</v>
       </c>
       <c r="S83">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5998,40 +5998,40 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>513</v>
+        <v>600</v>
       </c>
       <c r="I84">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J84">
-        <v>59.51</v>
+        <v>59.65</v>
       </c>
       <c r="K84">
         <v>0.01</v>
       </c>
       <c r="L84">
-        <v>28.34</v>
+        <v>26.13</v>
       </c>
       <c r="M84">
-        <v>8.619999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>244.33</v>
+        <v>262.88</v>
       </c>
       <c r="P84">
-        <v>513</v>
+        <v>600</v>
       </c>
       <c r="Q84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>45.88</v>
+        <v>40.43</v>
       </c>
       <c r="S84">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6057,40 +6057,40 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="I85">
-        <v>99.19</v>
+        <v>100</v>
       </c>
       <c r="J85">
-        <v>59.12</v>
+        <v>59.86</v>
       </c>
       <c r="K85">
         <v>0.01</v>
       </c>
       <c r="L85">
-        <v>28.46</v>
+        <v>28.32</v>
       </c>
       <c r="M85">
-        <v>8.32</v>
+        <v>9.34</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>236.84</v>
+        <v>264.5</v>
       </c>
       <c r="P85">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="Q85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>47.96</v>
+        <v>44.21</v>
       </c>
       <c r="S85">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6116,40 +6116,40 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>498</v>
+        <v>618</v>
       </c>
       <c r="I86">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="J86">
-        <v>59.55</v>
+        <v>59.68</v>
       </c>
       <c r="K86">
         <v>0.01</v>
       </c>
       <c r="L86">
-        <v>27.96</v>
+        <v>26.03</v>
       </c>
       <c r="M86">
-        <v>8.359999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>233.81</v>
+        <v>269.5</v>
       </c>
       <c r="P86">
-        <v>498</v>
+        <v>618</v>
       </c>
       <c r="Q86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>48.03</v>
+        <v>39.14</v>
       </c>
       <c r="S86">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6175,40 +6175,40 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="I87">
-        <v>99.19</v>
+        <v>100</v>
       </c>
       <c r="J87">
-        <v>59.51</v>
+        <v>59.44</v>
       </c>
       <c r="K87">
         <v>0.01</v>
       </c>
       <c r="L87">
-        <v>29.76</v>
+        <v>30.48</v>
       </c>
       <c r="M87">
-        <v>8.27</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>246.04</v>
+        <v>301.48</v>
       </c>
       <c r="P87">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="Q87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>59.17</v>
+        <v>59.35</v>
       </c>
       <c r="S87">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6234,40 +6234,40 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="I88">
-        <v>99.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="J88">
-        <v>59.56</v>
+        <v>59.5</v>
       </c>
       <c r="K88">
         <v>0.01</v>
       </c>
       <c r="L88">
-        <v>35.47</v>
+        <v>34.29</v>
       </c>
       <c r="M88">
-        <v>7</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>248.34</v>
+        <v>278.91</v>
       </c>
       <c r="P88">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>59.34</v>
+        <v>59.44</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6293,40 +6293,40 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="I89">
-        <v>99.08</v>
+        <v>100</v>
       </c>
       <c r="J89">
-        <v>59.56</v>
+        <v>59.8</v>
       </c>
       <c r="K89">
         <v>0.01</v>
       </c>
       <c r="L89">
-        <v>34.18</v>
+        <v>29.72</v>
       </c>
       <c r="M89">
-        <v>7.27</v>
+        <v>10.02</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89">
-        <v>248.45</v>
+        <v>297.68</v>
       </c>
       <c r="P89">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>59.2</v>
+        <v>59.74</v>
       </c>
       <c r="S89">
-        <v>8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6352,40 +6352,40 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>397</v>
+        <v>525</v>
       </c>
       <c r="I90">
-        <v>99.25</v>
+        <v>100</v>
       </c>
       <c r="J90">
-        <v>59.7</v>
+        <v>59.82</v>
       </c>
       <c r="K90">
         <v>0.01</v>
       </c>
       <c r="L90">
-        <v>37.09</v>
+        <v>34.62</v>
       </c>
       <c r="M90">
-        <v>6.65</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>246.64</v>
+        <v>303.87</v>
       </c>
       <c r="P90">
-        <v>397</v>
+        <v>525</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>59.41</v>
+        <v>59.72</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6411,40 +6411,40 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>432</v>
+        <v>572</v>
       </c>
       <c r="I91">
-        <v>99.31</v>
+        <v>100</v>
       </c>
       <c r="J91">
-        <v>59.51</v>
+        <v>59.83</v>
       </c>
       <c r="K91">
         <v>0.01</v>
       </c>
       <c r="L91">
-        <v>35.86</v>
+        <v>28.63</v>
       </c>
       <c r="M91">
-        <v>7.26</v>
+        <v>9.56</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>260.33</v>
+        <v>273.73</v>
       </c>
       <c r="P91">
-        <v>432</v>
+        <v>572</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>59.11</v>
+        <v>59.61</v>
       </c>
       <c r="S91">
-        <v>12.01</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6470,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>444</v>
+        <v>601</v>
       </c>
       <c r="I92">
-        <v>99.11</v>
+        <v>100</v>
       </c>
       <c r="J92">
         <v>59.35</v>
@@ -6482,28 +6482,28 @@
         <v>0.01</v>
       </c>
       <c r="L92">
-        <v>33.61</v>
+        <v>30.25</v>
       </c>
       <c r="M92">
-        <v>7.48</v>
+        <v>10.13</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>251.45</v>
+        <v>306.3</v>
       </c>
       <c r="P92">
-        <v>444</v>
+        <v>601</v>
       </c>
       <c r="Q92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>59.17</v>
+        <v>59.21</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6529,37 +6529,37 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="I93">
-        <v>99.22</v>
+        <v>100</v>
       </c>
       <c r="J93">
-        <v>59.35</v>
+        <v>59.66</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L93">
-        <v>44.36</v>
+        <v>40.31</v>
       </c>
       <c r="M93">
-        <v>4.28</v>
+        <v>6.35</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>189.83</v>
+        <v>256.07</v>
       </c>
       <c r="P93">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>59.19</v>
+        <v>59.53</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -6588,40 +6588,40 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="I94">
-        <v>98.89</v>
+        <v>100</v>
       </c>
       <c r="J94">
-        <v>59.43</v>
+        <v>59.68</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L94">
-        <v>44.48</v>
+        <v>41.05</v>
       </c>
       <c r="M94">
-        <v>4.51</v>
+        <v>6.64</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>200.59</v>
+        <v>272.38</v>
       </c>
       <c r="P94">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>59.1</v>
+        <v>59.58</v>
       </c>
       <c r="S94">
-        <v>29.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6647,40 +6647,40 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="I95">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J95">
-        <v>59.46</v>
+        <v>59.37</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L95">
-        <v>44.56</v>
+        <v>42.85</v>
       </c>
       <c r="M95">
-        <v>4.52</v>
+        <v>5.51</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>201.59</v>
+        <v>236.01</v>
       </c>
       <c r="P95">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>59.13</v>
+        <v>59.25</v>
       </c>
       <c r="S95">
-        <v>29.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6706,37 +6706,37 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>189</v>
+        <v>368</v>
       </c>
       <c r="I96">
-        <v>99.47</v>
+        <v>100</v>
       </c>
       <c r="J96">
-        <v>59.6</v>
+        <v>59.89</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L96">
-        <v>48.85</v>
+        <v>41.2</v>
       </c>
       <c r="M96">
-        <v>3.17</v>
+        <v>6.14</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>154.9</v>
+        <v>253.16</v>
       </c>
       <c r="P96">
-        <v>189</v>
+        <v>368</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>59.56</v>
+        <v>59.76</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -6765,40 +6765,40 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="I97">
-        <v>99.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="J97">
-        <v>59.21</v>
+        <v>59.82</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L97">
-        <v>45.33</v>
+        <v>44.25</v>
       </c>
       <c r="M97">
-        <v>4.22</v>
+        <v>5.37</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>191.41</v>
+        <v>237.44</v>
       </c>
       <c r="P97">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>58.91</v>
+        <v>59.72</v>
       </c>
       <c r="S97">
-        <v>31.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6824,37 +6824,37 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J98">
-        <v>59.75</v>
+        <v>59.52</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>51.77</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>122.65</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>59.41</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -6883,37 +6883,37 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J99">
-        <v>59.44</v>
+        <v>59.53</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>51.58</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>142.98</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>59.43</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -6942,37 +6942,37 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>59.49</v>
+        <v>59.69</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>55.06</v>
+        <v>51.03</v>
       </c>
       <c r="M100">
-        <v>1.13</v>
+        <v>2.86</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100">
-        <v>62.01</v>
+        <v>146.18</v>
       </c>
       <c r="P100">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>59.31</v>
+        <v>59.52</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -7001,37 +7001,37 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>59.65</v>
+        <v>59.37</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>57.41</v>
+        <v>53.15</v>
       </c>
       <c r="M101">
-        <v>0.72</v>
+        <v>2.11</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>41.39</v>
+        <v>111.91</v>
       </c>
       <c r="P101">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>59.51</v>
+        <v>59.31</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -7051,12 +7051,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -7128,40 +7126,40 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>52.2</v>
+        <v>158.8</v>
       </c>
       <c r="F2">
-        <v>39.824</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>59.548</v>
+        <v>59.438</v>
       </c>
       <c r="H2">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>20.818</v>
+        <v>51.348</v>
       </c>
       <c r="J2">
-        <v>0.8720000000000001</v>
+        <v>2.674</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L2">
-        <v>42.23</v>
+        <v>129.286</v>
       </c>
       <c r="M2">
-        <v>52.2</v>
+        <v>159</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23.736</v>
+        <v>59.33199999999999</v>
       </c>
       <c r="P2">
-        <v>6.914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7174,40 +7172,40 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>541.8</v>
+        <v>595</v>
       </c>
       <c r="F3">
-        <v>99.15599999999999</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>59.69199999999999</v>
+        <v>59.42</v>
       </c>
       <c r="H3">
-        <v>0.612</v>
+        <v>0.672</v>
       </c>
       <c r="I3">
-        <v>17.854</v>
+        <v>16.736</v>
       </c>
       <c r="J3">
-        <v>9.076000000000001</v>
+        <v>10.014</v>
       </c>
       <c r="K3">
         <v>0.01</v>
       </c>
       <c r="L3">
-        <v>161.976</v>
+        <v>167.326</v>
       </c>
       <c r="M3">
-        <v>541.8</v>
+        <v>595</v>
       </c>
       <c r="N3">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>22.508</v>
+        <v>21.76</v>
       </c>
       <c r="P3">
-        <v>0.242</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7220,40 +7218,40 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>546.2</v>
+        <v>604.4</v>
       </c>
       <c r="F4">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>59.306</v>
+        <v>59.456</v>
       </c>
       <c r="H4">
-        <v>0.616</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I4">
-        <v>27.264</v>
+        <v>26.068</v>
       </c>
       <c r="J4">
-        <v>9.209999999999999</v>
+        <v>10.164</v>
       </c>
       <c r="K4">
         <v>0.01</v>
       </c>
       <c r="L4">
-        <v>251.052</v>
+        <v>265.026</v>
       </c>
       <c r="M4">
-        <v>546.2</v>
+        <v>604.4</v>
       </c>
       <c r="N4">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>43.554</v>
+        <v>40.176</v>
       </c>
       <c r="P4">
-        <v>0.266</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7266,40 +7264,40 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>496.8</v>
+        <v>562.4</v>
       </c>
       <c r="F5">
-        <v>99.16200000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>59.26000000000001</v>
+        <v>59.35799999999999</v>
       </c>
       <c r="H5">
-        <v>0.5620000000000001</v>
+        <v>0.634</v>
       </c>
       <c r="I5">
-        <v>33.568</v>
+        <v>32.604</v>
       </c>
       <c r="J5">
-        <v>8.385999999999999</v>
+        <v>9.474</v>
       </c>
       <c r="K5">
         <v>0.01</v>
       </c>
       <c r="L5">
-        <v>279.782</v>
+        <v>306.228</v>
       </c>
       <c r="M5">
-        <v>496.8</v>
+        <v>562.4</v>
       </c>
       <c r="N5">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>58.952</v>
+        <v>58.14200000000001</v>
       </c>
       <c r="P5">
-        <v>7.959999999999999</v>
+        <v>4.946000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7312,40 +7310,40 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>329</v>
+        <v>371.2</v>
       </c>
       <c r="F6">
-        <v>99.15799999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>59.266</v>
+        <v>59.312</v>
       </c>
       <c r="H6">
-        <v>0.372</v>
+        <v>0.42</v>
       </c>
       <c r="I6">
-        <v>41.172</v>
+        <v>41.408</v>
       </c>
       <c r="J6">
-        <v>5.554</v>
+        <v>6.258</v>
       </c>
       <c r="K6">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="L6">
-        <v>221.894</v>
+        <v>255.888</v>
       </c>
       <c r="M6">
-        <v>329</v>
+        <v>371.2</v>
       </c>
       <c r="N6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>59.03400000000001</v>
+        <v>59.21599999999999</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.368</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7360,37 +7358,37 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>12.4</v>
+        <v>21.2</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>59.472</v>
+        <v>59.19</v>
       </c>
       <c r="H7">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="I7">
-        <v>10.934</v>
+        <v>10.532</v>
       </c>
       <c r="J7">
-        <v>0.21</v>
+        <v>0.358</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.448</v>
+        <v>18.862</v>
       </c>
       <c r="M7">
-        <v>12.4</v>
+        <v>21.2</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.808</v>
+        <v>11.82</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -7406,40 +7404,40 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>338.4</v>
+        <v>403.2</v>
       </c>
       <c r="F8">
-        <v>99.312</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>59.41799999999999</v>
+        <v>59.40600000000001</v>
       </c>
       <c r="H8">
-        <v>0.21</v>
+        <v>0.252</v>
       </c>
       <c r="I8">
-        <v>28.55</v>
+        <v>26.08</v>
       </c>
       <c r="J8">
-        <v>5.704</v>
+        <v>6.794</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L8">
-        <v>132.878</v>
+        <v>148.784</v>
       </c>
       <c r="M8">
-        <v>338.4</v>
+        <v>403.2</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>35.638</v>
+        <v>32.592</v>
       </c>
       <c r="P8">
-        <v>0.174</v>
+        <v>8.504000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7452,40 +7450,40 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>402</v>
+        <v>435.2</v>
       </c>
       <c r="F9">
-        <v>99.014</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>59.274</v>
+        <v>59.358</v>
       </c>
       <c r="H9">
-        <v>0.252</v>
+        <v>0.272</v>
       </c>
       <c r="I9">
-        <v>29.526</v>
+        <v>29.854</v>
       </c>
       <c r="J9">
-        <v>6.781999999999999</v>
+        <v>7.331999999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>200.276</v>
+        <v>218.508</v>
       </c>
       <c r="M9">
-        <v>402</v>
+        <v>435.2</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>57.912</v>
+        <v>54.574</v>
       </c>
       <c r="P9">
-        <v>0.236</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7498,40 +7496,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>275.8</v>
+        <v>353.8</v>
       </c>
       <c r="F10">
-        <v>99.148</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>59.4</v>
+        <v>59.514</v>
       </c>
       <c r="H10">
-        <v>0.172</v>
+        <v>0.222</v>
       </c>
       <c r="I10">
-        <v>39.842</v>
+        <v>36.614</v>
       </c>
       <c r="J10">
-        <v>4.646</v>
+        <v>5.942</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L10">
-        <v>178.93</v>
+        <v>210.554</v>
       </c>
       <c r="M10">
-        <v>275.8</v>
+        <v>353.8</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>59.23999999999999</v>
+        <v>59.42</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5.938</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7544,40 +7542,40 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>100.8</v>
       </c>
       <c r="F11">
-        <v>99.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>59.488</v>
+        <v>59.27200000000001</v>
       </c>
       <c r="H11">
-        <v>0.052</v>
+        <v>0.064</v>
       </c>
       <c r="I11">
-        <v>53.316</v>
+        <v>52.63200000000001</v>
       </c>
       <c r="J11">
-        <v>1.432</v>
+        <v>1.702</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>68.014</v>
+        <v>86.81</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>100.8</v>
       </c>
       <c r="N11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>59.324</v>
+        <v>59.172</v>
       </c>
       <c r="P11">
-        <v>11.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7592,40 +7590,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>72</v>
+        <v>184.6</v>
       </c>
       <c r="F12">
-        <v>59.842</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>59.508</v>
+        <v>59.586</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I12">
-        <v>31.56</v>
+        <v>50.356</v>
       </c>
       <c r="J12">
-        <v>1.214</v>
+        <v>3.096</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>58.962</v>
+        <v>152.232</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>184.6</v>
       </c>
       <c r="N12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>35.546</v>
+        <v>59.47799999999999</v>
       </c>
       <c r="P12">
-        <v>6.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7638,40 +7636,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>301.8</v>
+        <v>406.6</v>
       </c>
       <c r="F13">
-        <v>59.524</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>59.42999999999999</v>
+        <v>59.648</v>
       </c>
       <c r="H13">
         <v>0.006</v>
       </c>
       <c r="I13">
-        <v>11.364</v>
+        <v>17.796</v>
       </c>
       <c r="J13">
-        <v>5.078</v>
+        <v>6.824</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>96.146</v>
+        <v>133.378</v>
       </c>
       <c r="M13">
-        <v>301.8</v>
+        <v>406.6</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.364</v>
+        <v>23.386</v>
       </c>
       <c r="P13">
-        <v>0.08599999999999999</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7684,40 +7682,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>509</v>
+        <v>594.2</v>
       </c>
       <c r="F14">
-        <v>99.14200000000001</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>59.508</v>
+        <v>59.75</v>
       </c>
       <c r="H14">
         <v>0.01</v>
       </c>
       <c r="I14">
-        <v>28.258</v>
+        <v>26.738</v>
       </c>
       <c r="J14">
-        <v>8.552</v>
+        <v>9.946000000000002</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>241.698</v>
+        <v>265.642</v>
       </c>
       <c r="M14">
-        <v>509</v>
+        <v>594.2</v>
       </c>
       <c r="N14">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>46.76600000000001</v>
+        <v>41.02200000000001</v>
       </c>
       <c r="P14">
-        <v>0.202</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7730,40 +7728,40 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>434.2</v>
+        <v>553.6</v>
       </c>
       <c r="F15">
-        <v>99.224</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>59.568</v>
+        <v>59.678</v>
       </c>
       <c r="H15">
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>34.472</v>
+        <v>31.548</v>
       </c>
       <c r="J15">
-        <v>7.290000000000001</v>
+        <v>9.276</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>249.96</v>
+        <v>291.134</v>
       </c>
       <c r="M15">
-        <v>434.2</v>
+        <v>553.6</v>
       </c>
       <c r="N15">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>59.246</v>
+        <v>59.572</v>
       </c>
       <c r="P15">
-        <v>4.044</v>
+        <v>3.672</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7776,40 +7774,40 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>284.8</v>
+        <v>414.2</v>
       </c>
       <c r="F16">
-        <v>99.11800000000001</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>59.438</v>
+        <v>59.59</v>
       </c>
       <c r="H16">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="I16">
-        <v>43.172</v>
+        <v>39.132</v>
       </c>
       <c r="J16">
-        <v>4.792</v>
+        <v>6.953999999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>199.672</v>
+        <v>264.784</v>
       </c>
       <c r="M16">
-        <v>284.8</v>
+        <v>414.2</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>59.23</v>
+        <v>59.46599999999999</v>
       </c>
       <c r="P16">
-        <v>11.982</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7824,37 +7822,37 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>19.736</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>59.584</v>
+        <v>59.55800000000001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.796</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.592</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.884</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -7870,40 +7868,40 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>242.2</v>
+        <v>308.4</v>
       </c>
       <c r="F18">
-        <v>59.46</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>59.758</v>
+        <v>59.58</v>
       </c>
       <c r="H18">
         <v>0.006</v>
       </c>
       <c r="I18">
-        <v>13.244</v>
+        <v>21.888</v>
       </c>
       <c r="J18">
-        <v>4.054</v>
+        <v>5.165999999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>89.404</v>
+        <v>120.046</v>
       </c>
       <c r="M18">
-        <v>242.2</v>
+        <v>308.4</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.952</v>
+        <v>28.418</v>
       </c>
       <c r="P18">
-        <v>0.114</v>
+        <v>7.925999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7916,40 +7914,40 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>319.8</v>
+        <v>465.2</v>
       </c>
       <c r="F19">
-        <v>79.35599999999999</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>48.09</v>
+        <v>59.65</v>
       </c>
       <c r="H19">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
-        <v>24.198</v>
+        <v>29.342</v>
       </c>
       <c r="J19">
-        <v>5.356</v>
+        <v>7.798</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>161.984</v>
+        <v>228.838</v>
       </c>
       <c r="M19">
-        <v>319.8</v>
+        <v>465.2</v>
       </c>
       <c r="N19">
-        <v>287.2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>47.154</v>
+        <v>51.354</v>
       </c>
       <c r="P19">
-        <v>0.6</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7962,40 +7960,40 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>311.6</v>
+        <v>358</v>
       </c>
       <c r="F20">
-        <v>99.22799999999999</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>59.452</v>
+        <v>59.818</v>
       </c>
       <c r="H20">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="I20">
-        <v>36.756</v>
+        <v>36.86</v>
       </c>
       <c r="J20">
-        <v>5.244</v>
+        <v>5.986</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>188.398</v>
+        <v>217.526</v>
       </c>
       <c r="M20">
-        <v>311.6</v>
+        <v>358</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>59.20800000000001</v>
+        <v>59.69</v>
       </c>
       <c r="P20">
-        <v>9.512</v>
+        <v>6.969999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8008,37 +8006,37 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>84.8</v>
+        <v>146</v>
       </c>
       <c r="F21">
-        <v>99.83</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>59.502</v>
+        <v>59.47000000000001</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>53.326</v>
+        <v>49.916</v>
       </c>
       <c r="J21">
-        <v>1.422</v>
+        <v>2.458</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>69.20599999999999</v>
+        <v>115.308</v>
       </c>
       <c r="M21">
-        <v>84.8</v>
+        <v>146</v>
       </c>
       <c r="N21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>59.38</v>
+        <v>59.346</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -8065,13 +8063,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8135,40 +8133,40 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>393.2</v>
+        <v>458.36</v>
       </c>
       <c r="E2">
-        <v>87.3</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>59.41439999999999</v>
+        <v>59.39680000000001</v>
       </c>
       <c r="G2">
-        <v>0.4444</v>
+        <v>0.5175999999999999</v>
       </c>
       <c r="H2">
-        <v>28.1352</v>
+        <v>33.6328</v>
       </c>
       <c r="I2">
-        <v>6.6196</v>
+        <v>7.716799999999999</v>
       </c>
       <c r="J2">
-        <v>0.0076</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K2">
-        <v>191.3868</v>
+        <v>224.7508</v>
       </c>
       <c r="L2">
-        <v>393.2</v>
+        <v>458.4</v>
       </c>
       <c r="M2">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>41.5568</v>
+        <v>47.7252</v>
       </c>
       <c r="O2">
-        <v>3.0764</v>
+        <v>2.124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -8180,40 +8178,40 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>222.72</v>
+        <v>262.84</v>
       </c>
       <c r="E3">
-        <v>83.3248</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>59.4104</v>
+        <v>59.348</v>
       </c>
       <c r="G3">
-        <v>0.1388</v>
+        <v>0.1648</v>
       </c>
       <c r="H3">
-        <v>32.4336</v>
+        <v>31.1424</v>
       </c>
       <c r="I3">
-        <v>3.7548</v>
+        <v>4.4256</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="K3">
-        <v>118.3092</v>
+        <v>136.7036</v>
       </c>
       <c r="L3">
-        <v>222.72</v>
+        <v>262.84</v>
       </c>
       <c r="M3">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>44.78440000000001</v>
+        <v>43.51560000000001</v>
       </c>
       <c r="O3">
-        <v>2.296</v>
+        <v>3.0068</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8225,40 +8223,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>320.36</v>
+        <v>430.64</v>
       </c>
       <c r="E4">
-        <v>83.37</v>
+        <v>96</v>
       </c>
       <c r="F4">
-        <v>59.4904</v>
+        <v>59.6504</v>
       </c>
       <c r="G4">
-        <v>0.005600000000000001</v>
+        <v>0.0076</v>
       </c>
       <c r="H4">
-        <v>29.7652</v>
+        <v>33.114</v>
       </c>
       <c r="I4">
-        <v>5.3852</v>
+        <v>7.2192</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>169.2876</v>
+        <v>221.434</v>
       </c>
       <c r="L4">
-        <v>320.36</v>
+        <v>430.64</v>
       </c>
       <c r="M4">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>43.0304</v>
+        <v>48.58479999999999</v>
       </c>
       <c r="O4">
-        <v>4.5172</v>
+        <v>1.5648</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8270,40 +8268,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>194.68</v>
+        <v>255.52</v>
       </c>
       <c r="E5">
-        <v>71.52199999999999</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>57.2772</v>
+        <v>59.61519999999999</v>
       </c>
       <c r="G5">
-        <v>0.0036</v>
+        <v>0.0052</v>
       </c>
       <c r="H5">
-        <v>27.664</v>
+        <v>27.6012</v>
       </c>
       <c r="I5">
-        <v>3.2656</v>
+        <v>4.2816</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>104.5168</v>
+        <v>136.3436</v>
       </c>
       <c r="L5">
-        <v>194.68</v>
+        <v>255.52</v>
       </c>
       <c r="M5">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>39.1156</v>
+        <v>39.7616</v>
       </c>
       <c r="O5">
-        <v>2.0452</v>
+        <v>3.0144</v>
       </c>
     </row>
   </sheetData>
@@ -8323,10 +8321,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -8386,40 +8384,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>282.74</v>
+        <v>351.84</v>
       </c>
       <c r="D2">
-        <v>81.3792</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>58.89810000000001</v>
+        <v>59.5026</v>
       </c>
       <c r="F2">
-        <v>0.1481</v>
+        <v>0.1738</v>
       </c>
       <c r="G2">
-        <v>29.4995</v>
+        <v>31.3726</v>
       </c>
       <c r="H2">
-        <v>4.7563</v>
+        <v>5.9108</v>
       </c>
       <c r="I2">
-        <v>0.0019</v>
+        <v>0.0023</v>
       </c>
       <c r="J2">
-        <v>145.8751</v>
+        <v>179.808</v>
       </c>
       <c r="K2">
-        <v>282.74</v>
+        <v>351.85</v>
       </c>
       <c r="L2">
-        <v>16.59</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>42.1218</v>
+        <v>44.89680000000001</v>
       </c>
       <c r="N2">
-        <v>2.9837</v>
+        <v>2.4275</v>
       </c>
     </row>
   </sheetData>
